--- a/CountryCities.xlsx
+++ b/CountryCities.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="350">
   <si>
     <t xml:space="preserve">Belgium</t>
   </si>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Turkey</t>
   </si>
   <si>
-    <t xml:space="preserve">Bruxelles / Brussel</t>
+    <t xml:space="preserve">Bruxelles / Brussel / Bruessels</t>
   </si>
   <si>
     <t xml:space="preserve">Sofia</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Dublin</t>
   </si>
   <si>
-    <t xml:space="preserve">Athina</t>
+    <t xml:space="preserve">Athina / Athens</t>
   </si>
   <si>
     <t xml:space="preserve">Madrid</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Zagreb</t>
   </si>
   <si>
-    <t xml:space="preserve">Roma</t>
+    <t xml:space="preserve">Roma / Rome</t>
   </si>
   <si>
     <t xml:space="preserve">Lefkosia</t>
@@ -181,7 +181,7 @@
     <t xml:space="preserve">Warszawa</t>
   </si>
   <si>
-    <t xml:space="preserve">Lisboa</t>
+    <t xml:space="preserve">Lisboa / Lisbon</t>
   </si>
   <si>
     <t xml:space="preserve">Bucuresti</t>
@@ -202,10 +202,16 @@
     <t xml:space="preserve">London</t>
   </si>
   <si>
+    <t xml:space="preserve">Reykjavik</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oslo</t>
   </si>
   <si>
-    <t xml:space="preserve">Zürich</t>
+    <t xml:space="preserve">Zürich / Zurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankara</t>
   </si>
   <si>
     <t xml:space="preserve">Antwerpen</t>
@@ -226,7 +232,7 @@
     <t xml:space="preserve">Cork</t>
   </si>
   <si>
-    <t xml:space="preserve">Thessaloniki</t>
+    <t xml:space="preserve">Thessaloniki / Thessalonia</t>
   </si>
   <si>
     <t xml:space="preserve">Barcelona</t>
@@ -238,7 +244,7 @@
     <t xml:space="preserve">Split</t>
   </si>
   <si>
-    <t xml:space="preserve">Milano</t>
+    <t xml:space="preserve">Milano / Milan</t>
   </si>
   <si>
     <t xml:space="preserve">Riga</t>
@@ -259,7 +265,7 @@
     <t xml:space="preserve">Lódz</t>
   </si>
   <si>
-    <t xml:space="preserve">Porto</t>
+    <t xml:space="preserve">Porto / El Porto</t>
   </si>
   <si>
     <t xml:space="preserve">Cluj-Napoca</t>
@@ -283,7 +289,7 @@
     <t xml:space="preserve">Bergen</t>
   </si>
   <si>
-    <t xml:space="preserve">Genève</t>
+    <t xml:space="preserve">Genève / Geneva / Geneve / Genève (CH)</t>
   </si>
   <si>
     <t xml:space="preserve">Gent</t>
@@ -298,7 +304,7 @@
     <t xml:space="preserve">Odense</t>
   </si>
   <si>
-    <t xml:space="preserve">München</t>
+    <t xml:space="preserve">München / Munich / Munchen</t>
   </si>
   <si>
     <t xml:space="preserve">Valencia</t>
@@ -307,7 +313,7 @@
     <t xml:space="preserve">Toulouse</t>
   </si>
   <si>
-    <t xml:space="preserve">Napoli</t>
+    <t xml:space="preserve">Napoli / Naples</t>
   </si>
   <si>
     <t xml:space="preserve">Pécs</t>
@@ -352,7 +358,7 @@
     <t xml:space="preserve">Aalborg</t>
   </si>
   <si>
-    <t xml:space="preserve">Köln</t>
+    <t xml:space="preserve">Köln / Cologne / Koln</t>
   </si>
   <si>
     <t xml:space="preserve">Sevilla</t>
@@ -361,7 +367,7 @@
     <t xml:space="preserve">Strasbourg</t>
   </si>
   <si>
-    <t xml:space="preserve">Torino</t>
+    <t xml:space="preserve">Torino / Turin</t>
   </si>
   <si>
     <t xml:space="preserve">Debrecen</t>
@@ -394,7 +400,7 @@
     <t xml:space="preserve">Liberec</t>
   </si>
   <si>
-    <t xml:space="preserve">Frankfurt am Main</t>
+    <t xml:space="preserve">Frankfurt am Main / Frankfurt</t>
   </si>
   <si>
     <t xml:space="preserve">Zaragoza</t>
@@ -427,6 +433,9 @@
     <t xml:space="preserve">Lausanne</t>
   </si>
   <si>
+    <t xml:space="preserve">Copenhagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stuttgart</t>
   </si>
   <si>
@@ -436,7 +445,7 @@
     <t xml:space="preserve">Nantes</t>
   </si>
   <si>
-    <t xml:space="preserve">Genova</t>
+    <t xml:space="preserve">Genova / Genoa</t>
   </si>
   <si>
     <t xml:space="preserve">Tilburg</t>
@@ -460,7 +469,7 @@
     <t xml:space="preserve">Lille - Dunkerque - Valenciennes</t>
   </si>
   <si>
-    <t xml:space="preserve">Firenze</t>
+    <t xml:space="preserve">Firenze / Florence</t>
   </si>
   <si>
     <t xml:space="preserve">Groningen</t>
@@ -499,7 +508,7 @@
     <t xml:space="preserve">Manchester</t>
   </si>
   <si>
-    <t xml:space="preserve">Düsseldorf</t>
+    <t xml:space="preserve">Düsseldorf / Dusseldorf</t>
   </si>
   <si>
     <t xml:space="preserve">Valladolid</t>
@@ -544,7 +553,7 @@
     <t xml:space="preserve">Sheffield</t>
   </si>
   <si>
-    <t xml:space="preserve">Hannover</t>
+    <t xml:space="preserve">Hannover / Hanover</t>
   </si>
   <si>
     <t xml:space="preserve">Vitoria/Gasteiz</t>
@@ -553,7 +562,7 @@
     <t xml:space="preserve">Amiens</t>
   </si>
   <si>
-    <t xml:space="preserve">Venezia</t>
+    <t xml:space="preserve">Venezia / Venice</t>
   </si>
   <si>
     <t xml:space="preserve">Breda</t>
@@ -565,7 +574,7 @@
     <t xml:space="preserve">Bristol</t>
   </si>
   <si>
-    <t xml:space="preserve">Nürnberg</t>
+    <t xml:space="preserve">Nürnberg / Nuremburg / Nurnberg</t>
   </si>
   <si>
     <t xml:space="preserve">Oviedo - Gijón</t>
@@ -577,7 +586,7 @@
     <t xml:space="preserve">Verona</t>
   </si>
   <si>
-    <t xml:space="preserve">'s-Hertogenbosch / Den Bosch</t>
+    <t xml:space="preserve">'s-Hertogenbosch / Den Bosch / s-Hertogenbosch</t>
   </si>
   <si>
     <t xml:space="preserve">Kielce</t>
@@ -601,10 +610,10 @@
     <t xml:space="preserve">Olsztyn</t>
   </si>
   <si>
-    <t xml:space="preserve">Newcastle upon Tyne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halle an der Saale</t>
+    <t xml:space="preserve">Newcastle upon Tyne / Newcastle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halle an der Saale / Halle / Saale</t>
   </si>
   <si>
     <t xml:space="preserve">Santander</t>
@@ -628,10 +637,10 @@
     <t xml:space="preserve">Bilbao</t>
   </si>
   <si>
-    <t xml:space="preserve">Orléans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Padova</t>
+    <t xml:space="preserve">Orléans / Orleans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padova / Padua</t>
   </si>
   <si>
     <t xml:space="preserve">Opole</t>
@@ -658,7 +667,7 @@
     <t xml:space="preserve">Exeter</t>
   </si>
   <si>
-    <t xml:space="preserve">Göttingen</t>
+    <t xml:space="preserve">Göttingen / Gottingen</t>
   </si>
   <si>
     <t xml:space="preserve">Vigo</t>
@@ -694,10 +703,10 @@
     <t xml:space="preserve">Coventry</t>
   </si>
   <si>
-    <t xml:space="preserve">Freiburg im Breisgau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Coruña</t>
+    <t xml:space="preserve">Freiburg im Breisgau / Freiburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Coruña / A Coruna / Coruna</t>
   </si>
   <si>
     <t xml:space="preserve">Caen</t>
@@ -709,7 +718,7 @@
     <t xml:space="preserve">Tarnów</t>
   </si>
   <si>
-    <t xml:space="preserve">Kingston upon Hull</t>
+    <t xml:space="preserve">Kingston upon Hull / Hull</t>
   </si>
   <si>
     <t xml:space="preserve">Regensburg</t>
@@ -721,16 +730,16 @@
     <t xml:space="preserve">Limoges</t>
   </si>
   <si>
-    <t xml:space="preserve">Reggio nell Emilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoke-on-Trent</t>
+    <t xml:space="preserve">Reggio nell Emilia / Reggio Emilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoke-on-Trent / Stoke </t>
   </si>
   <si>
     <t xml:space="preserve">Schwerin</t>
   </si>
   <si>
-    <t xml:space="preserve">Córdoba</t>
+    <t xml:space="preserve">Córdoba / Cordoba</t>
   </si>
   <si>
     <t xml:space="preserve">Besançon</t>
@@ -745,7 +754,7 @@
     <t xml:space="preserve">Erfurt</t>
   </si>
   <si>
-    <t xml:space="preserve">Guipúzcoa</t>
+    <t xml:space="preserve">Guipúzcoa / Guipuzcoa</t>
   </si>
   <si>
     <t xml:space="preserve">Grenoble</t>
@@ -760,7 +769,7 @@
     <t xml:space="preserve">Augsburg</t>
   </si>
   <si>
-    <t xml:space="preserve">Cádiz</t>
+    <t xml:space="preserve">Cádiz / Cadiz</t>
   </si>
   <si>
     <t xml:space="preserve">Tours</t>
@@ -787,13 +796,13 @@
     <t xml:space="preserve">Medway</t>
   </si>
   <si>
-    <t xml:space="preserve">Mönchengladbach</t>
+    <t xml:space="preserve">Mönchengladbach / Monchengladbach</t>
   </si>
   <si>
     <t xml:space="preserve">Le Mans</t>
   </si>
   <si>
-    <t xml:space="preserve">Brighton and Hove</t>
+    <t xml:space="preserve">Brighton and Hove / Brighton</t>
   </si>
   <si>
     <t xml:space="preserve">Mainz</t>
@@ -805,7 +814,7 @@
     <t xml:space="preserve">Swansea</t>
   </si>
   <si>
-    <t xml:space="preserve">Ruhrgebiet</t>
+    <t xml:space="preserve">Ruhrgebiet / Ruhr</t>
   </si>
   <si>
     <t xml:space="preserve">Perpignan</t>
@@ -823,7 +832,7 @@
     <t xml:space="preserve">Southampton</t>
   </si>
   <si>
-    <t xml:space="preserve">Saarbrücken</t>
+    <t xml:space="preserve">Saarbrücken / Saarbrucken</t>
   </si>
   <si>
     <t xml:space="preserve">Pau</t>
@@ -835,10 +844,10 @@
     <t xml:space="preserve">Koblenz</t>
   </si>
   <si>
-    <t xml:space="preserve">Annecy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blackburn - Blackpool - Preston</t>
+    <t xml:space="preserve">Annecy / Annecy (FR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackburn - Blackpool – Preston</t>
   </si>
   <si>
     <t xml:space="preserve">Rostock</t>
@@ -883,7 +892,7 @@
     <t xml:space="preserve">Cambridge</t>
   </si>
   <si>
-    <t xml:space="preserve">Gießen</t>
+    <t xml:space="preserve">Gießen / Giessen</t>
   </si>
   <si>
     <t xml:space="preserve">Reading</t>
@@ -892,82 +901,163 @@
     <t xml:space="preserve">Bayreuth</t>
   </si>
   <si>
+    <t xml:space="preserve">Aldershot</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aschaffenburg</t>
   </si>
   <si>
+    <t xml:space="preserve">Barnsley</t>
+  </si>
+  <si>
     <t xml:space="preserve">Neubrandenburg</t>
   </si>
   <si>
+    <t xml:space="preserve">Basildon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rosenheim</t>
   </si>
   <si>
+    <t xml:space="preserve">Birkenhead</t>
+  </si>
+  <si>
     <t xml:space="preserve">Offenburg</t>
   </si>
   <si>
-    <t xml:space="preserve">Görlitz</t>
+    <t xml:space="preserve">Birmingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Görlitz / Gorlitz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burnley</t>
   </si>
   <si>
     <t xml:space="preserve">Schweinfurt</t>
   </si>
   <si>
+    <t xml:space="preserve">Chatham</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wetzlar</t>
   </si>
   <si>
+    <t xml:space="preserve">Crawley</t>
+  </si>
+  <si>
     <t xml:space="preserve">Braunschweig-Salzgitter-Wolfsburg</t>
   </si>
   <si>
+    <t xml:space="preserve">Gloucester</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mannheim-Ludwigshafen</t>
   </si>
   <si>
-    <t xml:space="preserve">Münster</t>
+    <t xml:space="preserve">Huddersfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Münster / Munster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luton</t>
   </si>
   <si>
     <t xml:space="preserve">Aachen</t>
   </si>
   <si>
-    <t xml:space="preserve">Lübeck</t>
+    <t xml:space="preserve">Mansfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lübeck / Lubeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milton Keynes</t>
   </si>
   <si>
     <t xml:space="preserve">Kassel</t>
   </si>
   <si>
-    <t xml:space="preserve">Osnabrück</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oldenburg</t>
+    <t xml:space="preserve">Newport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osnabrück / Osnabruck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oldenburg / Oldenburg (Oldenburg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxford</t>
   </si>
   <si>
     <t xml:space="preserve">Heidelberg</t>
   </si>
   <si>
+    <t xml:space="preserve">Peterborough</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paderborn</t>
   </si>
   <si>
-    <t xml:space="preserve">Würzburg</t>
+    <t xml:space="preserve">Plymouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Würzburg / Wurzburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slough</t>
   </si>
   <si>
     <t xml:space="preserve">Bremerhaven</t>
   </si>
   <si>
+    <t xml:space="preserve">Southend</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heilbronn</t>
   </si>
   <si>
+    <t xml:space="preserve">Swindon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ulm</t>
   </si>
   <si>
+    <t xml:space="preserve">Telford</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pforzheim</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakefield</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ingolstadt</t>
   </si>
   <si>
+    <t xml:space="preserve">Warrington</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reutlingen</t>
   </si>
   <si>
+    <t xml:space="preserve">Wigan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Siegen</t>
   </si>
   <si>
+    <t xml:space="preserve">Worthing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hildesheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">York</t>
   </si>
   <si>
     <t xml:space="preserve">Zwickau</t>
@@ -1096,1117 +1186,1411 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH69"/>
+  <dimension ref="A1:AI69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="V2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="X2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="Y2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="AA2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AB2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="0" t="s">
+      <c r="AC2" s="0" t="s">
         <v>60</v>
       </c>
       <c r="AE2" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="AF2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB28" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB29" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB30" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB31" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB32" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB33" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB34" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB35" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB36" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB37" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB38" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB39" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB40" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB41" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB42" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB43" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB44" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB45" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB46" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB47" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB48" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB49" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB50" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB51" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB52" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB53" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB54" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB55" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB56" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB57" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB58" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB59" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB60" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB61" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB62" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB63" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="F64" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB64" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="F65" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB65" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F66" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F67" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="F68" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE3" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE4" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA6" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE6" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA7" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="T8" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA8" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="T9" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="V9" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA9" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA10" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="T11" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA11" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA12" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA13" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA14" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="T15" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA15" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="T16" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA16" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="T17" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA17" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="T18" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA18" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="T19" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA19" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="T20" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA20" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA21" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA22" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA23" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA24" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA25" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA26" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA27" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA28" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA29" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA30" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA31" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA32" s="0" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA33" s="0" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA34" s="0" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="AA35" s="0" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA36" s="0" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA37" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E38" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA38" s="0" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="0" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="0" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="0" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="0" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="0" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="0" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="0" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="0" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="0" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="0" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="0" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="0" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="0" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="0" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E69" s="0" t="s">
-        <v>319</v>
+      <c r="F69" s="0" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/CountryCities.xlsx
+++ b/CountryCities.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="353">
   <si>
     <t xml:space="preserve">Belgium</t>
   </si>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Dublin</t>
   </si>
   <si>
-    <t xml:space="preserve">Athina / Athens</t>
+    <t xml:space="preserve">Athina / Athens / ATHINAI</t>
   </si>
   <si>
     <t xml:space="preserve">Madrid</t>
@@ -304,7 +304,7 @@
     <t xml:space="preserve">Odense</t>
   </si>
   <si>
-    <t xml:space="preserve">München / Munich / Munchen</t>
+    <t xml:space="preserve">München / Munich / Munchen / Muenchen</t>
   </si>
   <si>
     <t xml:space="preserve">Valencia</t>
@@ -400,6 +400,9 @@
     <t xml:space="preserve">Liberec</t>
   </si>
   <si>
+    <t xml:space="preserve">OSTRAVA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Frankfurt am Main / Frankfurt</t>
   </si>
   <si>
@@ -433,9 +436,33 @@
     <t xml:space="preserve">Lausanne</t>
   </si>
   <si>
+    <t xml:space="preserve">Bruges/Brugge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Copenhagen</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Carlsbad / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">KARLOVY VARY</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Stuttgart</t>
   </si>
   <si>
@@ -487,7 +514,7 @@
     <t xml:space="preserve">Dresden</t>
   </si>
   <si>
-    <t xml:space="preserve">Las Palmas</t>
+    <t xml:space="preserve">Las Palmas / La Palma</t>
   </si>
   <si>
     <t xml:space="preserve">Montpellier</t>
@@ -574,7 +601,7 @@
     <t xml:space="preserve">Bristol</t>
   </si>
   <si>
-    <t xml:space="preserve">Nürnberg / Nuremburg / Nurnberg</t>
+    <t xml:space="preserve">Nürnberg / Nuremburg / Nurnberg / Nuernberg</t>
   </si>
   <si>
     <t xml:space="preserve">Oviedo - Gijón</t>
@@ -688,7 +715,7 @@
     <t xml:space="preserve">Darmstadt</t>
   </si>
   <si>
-    <t xml:space="preserve">Santa Cruz de Tenerife</t>
+    <t xml:space="preserve">Santa Cruz de Tenerife / TENERIFE SUR/ TENERIFE NORTE / Tenerife</t>
   </si>
   <si>
     <t xml:space="preserve">Clermont-Ferrand</t>
@@ -832,7 +859,7 @@
     <t xml:space="preserve">Southampton</t>
   </si>
   <si>
-    <t xml:space="preserve">Saarbrücken / Saarbrucken</t>
+    <t xml:space="preserve">Saarbrücken / Saarbrucken / SAARBRUECKEN</t>
   </si>
   <si>
     <t xml:space="preserve">Pau</t>
@@ -1079,7 +1106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1109,6 +1136,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1160,13 +1193,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1188,8 +1225,8 @@
   </sheetPr>
   <dimension ref="A1:AI69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1605,70 +1642,79 @@
       <c r="D6" s="0" t="s">
         <v>125</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="F6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>138</v>
+      </c>
       <c r="D7" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AB7" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,28 +1722,28 @@
         <v>6</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AB8" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,28 +1751,28 @@
         <v>7</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AB9" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,28 +1780,28 @@
         <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AB10" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,25 +1809,25 @@
         <v>9</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AB11" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,25 +1835,25 @@
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AB12" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,25 +1861,25 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AB13" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,22 +1887,22 @@
         <v>12</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AB14" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,22 +1910,22 @@
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AB15" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,22 +1933,22 @@
         <v>14</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AB16" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,22 +1956,22 @@
         <v>15</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AB17" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,22 +1979,22 @@
         <v>16</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB18" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,22 +2002,22 @@
         <v>17</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB19" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1979,22 +2025,22 @@
         <v>18</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AB20" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2002,19 +2048,19 @@
         <v>19</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AB21" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,19 +2068,19 @@
         <v>20</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AB22" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,19 +2088,19 @@
         <v>21</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AB23" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,16 +2108,16 @@
         <v>22</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AB24" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,13 +2125,13 @@
         <v>23</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,13 +2139,13 @@
         <v>24</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AB26" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,13 +2153,13 @@
         <v>25</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AB27" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,13 +2167,13 @@
         <v>26</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AB28" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,13 +2181,13 @@
         <v>27</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AB29" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,13 +2195,13 @@
         <v>28</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AB30" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2163,13 +2209,13 @@
         <v>29</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AB31" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,13 +2223,13 @@
         <v>30</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AB32" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2191,13 +2237,13 @@
         <v>31</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AB33" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,13 +2251,13 @@
         <v>32</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AB34" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,13 +2265,13 @@
         <v>33</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AB35" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2233,13 +2279,13 @@
         <v>34</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AB36" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,10 +2293,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AB37" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,10 +2304,10 @@
         <v>36</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AB38" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,10 +2315,10 @@
         <v>37</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AB39" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,10 +2326,10 @@
         <v>38</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AB40" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,10 +2337,10 @@
         <v>39</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AB41" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,10 +2348,10 @@
         <v>40</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AB42" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,10 +2359,10 @@
         <v>41</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AB43" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,10 +2370,10 @@
         <v>42</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AB44" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,10 +2381,10 @@
         <v>43</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AB45" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,10 +2392,10 @@
         <v>44</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AB46" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,10 +2403,10 @@
         <v>45</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AB47" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,10 +2414,10 @@
         <v>46</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AB48" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,10 +2425,10 @@
         <v>47</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AB49" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,10 +2436,10 @@
         <v>48</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AB50" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,10 +2447,10 @@
         <v>49</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AB51" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,10 +2458,10 @@
         <v>50</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AB52" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,10 +2469,10 @@
         <v>51</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AB53" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,10 +2480,10 @@
         <v>52</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AB54" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,10 +2491,10 @@
         <v>53</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AB55" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,10 +2502,10 @@
         <v>54</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AB56" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,10 +2513,10 @@
         <v>55</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AB57" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,10 +2524,10 @@
         <v>56</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AB58" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,10 +2535,10 @@
         <v>57</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AB59" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,10 +2546,10 @@
         <v>58</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AB60" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +2557,10 @@
         <v>59</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AB61" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,10 +2568,10 @@
         <v>60</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AB62" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,10 +2579,10 @@
         <v>61</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AB63" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,10 +2590,10 @@
         <v>62</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AB64" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,10 +2601,10 @@
         <v>63</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AB65" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2566,7 +2612,7 @@
         <v>64</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,7 +2620,7 @@
         <v>65</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,7 +2628,7 @@
         <v>66</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,7 +2636,7 @@
         <v>67</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
